--- a/mAuditoriaPV/formatos/VILL.xlsx
+++ b/mAuditoriaPV/formatos/VILL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erick Acosta\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{30949814-79AD-4A86-9573-C53D7A0CFA24}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AE84FC32-6944-4527-976D-D7F40AB50ECA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{AA3BC546-E510-4A54-A031-D7A39B31475B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{7DD13667-10AB-4282-A814-636D68D6A159}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,183 +34,2283 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="759" uniqueCount="759">
   <si>
     <t>CODIGO</t>
   </si>
   <si>
-    <t>7501008433676</t>
-  </si>
-  <si>
-    <t>7501298218700</t>
-  </si>
-  <si>
-    <t>7501024202010</t>
-  </si>
-  <si>
-    <t>0107</t>
-  </si>
-  <si>
-    <t>92</t>
-  </si>
-  <si>
-    <t>286</t>
-  </si>
-  <si>
-    <t>91</t>
-  </si>
-  <si>
-    <t>7501040047770</t>
-  </si>
-  <si>
-    <t>0307</t>
-  </si>
-  <si>
-    <t>0244</t>
-  </si>
-  <si>
-    <t>0080</t>
-  </si>
-  <si>
-    <t>0205</t>
-  </si>
-  <si>
-    <t>0830</t>
-  </si>
-  <si>
-    <t>7501040004056</t>
-  </si>
-  <si>
-    <t>7501500410779</t>
-  </si>
-  <si>
-    <t>COIN-CAR-150</t>
-  </si>
-  <si>
-    <t>0728</t>
-  </si>
-  <si>
-    <t>0670</t>
-  </si>
-  <si>
-    <t>0902</t>
-  </si>
-  <si>
-    <t>0700083918000</t>
-  </si>
-  <si>
-    <t>382</t>
-  </si>
-  <si>
-    <t>0573</t>
-  </si>
-  <si>
-    <t>2019</t>
-  </si>
-  <si>
-    <t>2017</t>
-  </si>
-  <si>
-    <t>0150</t>
-  </si>
-  <si>
-    <t>0709</t>
-  </si>
-  <si>
-    <t>7501032398088</t>
-  </si>
-  <si>
-    <t>7501032397609</t>
-  </si>
-  <si>
-    <t>7501020555486</t>
-  </si>
-  <si>
-    <t>7501020550436</t>
-  </si>
-  <si>
-    <t>608875011659</t>
-  </si>
-  <si>
-    <t>608875011611</t>
-  </si>
-  <si>
-    <t>7501041201225</t>
-  </si>
-  <si>
-    <t>0316</t>
-  </si>
-  <si>
-    <t>7501020512250</t>
-  </si>
-  <si>
-    <t>0314</t>
-  </si>
-  <si>
-    <t>608875011673</t>
-  </si>
-  <si>
-    <t>7501642301621</t>
-  </si>
-  <si>
-    <t>7501040081576</t>
-  </si>
-  <si>
-    <t>7501040091124</t>
-  </si>
-  <si>
-    <t>7501020539356</t>
-  </si>
-  <si>
-    <t>7501020539431</t>
-  </si>
-  <si>
-    <t>7501020510591</t>
-  </si>
-  <si>
-    <t>7501032397869</t>
-  </si>
-  <si>
-    <t>160</t>
-  </si>
-  <si>
-    <t>7506192506779</t>
-  </si>
-  <si>
-    <t>7506192506786</t>
-  </si>
-  <si>
-    <t>7501130935512</t>
-  </si>
-  <si>
-    <t>7506246000086</t>
-  </si>
-  <si>
-    <t>759684076404</t>
-  </si>
-  <si>
-    <t>734722700633</t>
-  </si>
-  <si>
-    <t>7500326028823</t>
-  </si>
-  <si>
-    <t>075486088620</t>
-  </si>
-  <si>
-    <t>7501048660490</t>
-  </si>
-  <si>
-    <t>7501287200174</t>
-  </si>
-  <si>
-    <t>759684432071</t>
-  </si>
-  <si>
-    <t>7501209708139</t>
-  </si>
-  <si>
-    <t>7501209708078</t>
+    <t>7501061640028</t>
+  </si>
+  <si>
+    <t>17800142731</t>
+  </si>
+  <si>
+    <t>7503021093141</t>
+  </si>
+  <si>
+    <t>706460029321</t>
+  </si>
+  <si>
+    <t>7501217502064</t>
+  </si>
+  <si>
+    <t>7503021093158</t>
+  </si>
+  <si>
+    <t>706460249316</t>
+  </si>
+  <si>
+    <t>7501217500800</t>
+  </si>
+  <si>
+    <t>706460241662</t>
+  </si>
+  <si>
+    <t>706460000665</t>
+  </si>
+  <si>
+    <t>CI-PAN-0107</t>
+  </si>
+  <si>
+    <t>CI-PAN-0026</t>
+  </si>
+  <si>
+    <t>CI-PAN-0038</t>
+  </si>
+  <si>
+    <t>CI-PAN-0008</t>
+  </si>
+  <si>
+    <t>CI-PAN-0028</t>
+  </si>
+  <si>
+    <t>CI-PAN-0009</t>
+  </si>
+  <si>
+    <t>CI-PAN-0043</t>
+  </si>
+  <si>
+    <t>563</t>
+  </si>
+  <si>
+    <t>CI-PAN-0016</t>
+  </si>
+  <si>
+    <t>CI-PAN-0024</t>
+  </si>
+  <si>
+    <t>319</t>
+  </si>
+  <si>
+    <t>779</t>
+  </si>
+  <si>
+    <t>75045685</t>
+  </si>
+  <si>
+    <t>75045623</t>
+  </si>
+  <si>
+    <t>75045616</t>
+  </si>
+  <si>
+    <t>7501000641499</t>
+  </si>
+  <si>
+    <t>840004022741</t>
+  </si>
+  <si>
+    <t>102700</t>
+  </si>
+  <si>
+    <t>7506306415287</t>
+  </si>
+  <si>
+    <t>7501008001363</t>
+  </si>
+  <si>
+    <t>7501030427209</t>
+  </si>
+  <si>
+    <t>7501008705100</t>
+  </si>
+  <si>
+    <t>7501008023525</t>
+  </si>
+  <si>
+    <t>7501008042267</t>
+  </si>
+  <si>
+    <t>7501000133055</t>
+  </si>
+  <si>
+    <t>7501008001622</t>
+  </si>
+  <si>
+    <t>7501008002995</t>
+  </si>
+  <si>
+    <t>7501008001660</t>
+  </si>
+  <si>
+    <t>7501006559309</t>
+  </si>
+  <si>
+    <t>980510</t>
+  </si>
+  <si>
+    <t>7506306415775</t>
+  </si>
+  <si>
+    <t>7501000106301</t>
+  </si>
+  <si>
+    <t>7506306415799</t>
+  </si>
+  <si>
+    <t>980513</t>
+  </si>
+  <si>
+    <t>7501008007358</t>
+  </si>
+  <si>
+    <t>7501071305184</t>
+  </si>
+  <si>
+    <t>980511</t>
+  </si>
+  <si>
+    <t>980512</t>
+  </si>
+  <si>
+    <t>719886250316</t>
+  </si>
+  <si>
+    <t>985018</t>
+  </si>
+  <si>
+    <t>7501058638083</t>
+  </si>
+  <si>
+    <t>7503027775027</t>
+  </si>
+  <si>
+    <t>7500463956638</t>
+  </si>
+  <si>
+    <t>7503025992273</t>
+  </si>
+  <si>
+    <t>719886250330</t>
+  </si>
+  <si>
+    <t>80925729</t>
+  </si>
+  <si>
+    <t>7501058633354</t>
+  </si>
+  <si>
+    <t>7501761810271</t>
+  </si>
+  <si>
+    <t>7503017964035</t>
+  </si>
+  <si>
+    <t>7506174500207</t>
+  </si>
+  <si>
+    <t>7501008006450</t>
+  </si>
+  <si>
+    <t>041420041013</t>
+  </si>
+  <si>
+    <t>7502233119021</t>
+  </si>
+  <si>
+    <t>7502005513446</t>
+  </si>
+  <si>
+    <t>7501030470106</t>
+  </si>
+  <si>
+    <t>7502223776012</t>
+  </si>
+  <si>
+    <t>7502223776005</t>
+  </si>
+  <si>
+    <t>025046020652</t>
+  </si>
+  <si>
+    <t>840004019130</t>
+  </si>
+  <si>
+    <t>7501059299436</t>
+  </si>
+  <si>
+    <t>7503027775140</t>
+  </si>
+  <si>
+    <t>7501011154902</t>
+  </si>
+  <si>
+    <t>7501011135512</t>
+  </si>
+  <si>
+    <t>7501011126879</t>
+  </si>
+  <si>
+    <t>608890030413</t>
+  </si>
+  <si>
+    <t>985021</t>
+  </si>
+  <si>
+    <t>781624006578</t>
+  </si>
+  <si>
+    <t>7500478001057</t>
+  </si>
+  <si>
+    <t>7501011100718</t>
+  </si>
+  <si>
+    <t>757528022587</t>
+  </si>
+  <si>
+    <t>7500463956645</t>
+  </si>
+  <si>
+    <t>7500478015047</t>
+  </si>
+  <si>
+    <t>7500478007950</t>
+  </si>
+  <si>
+    <t>7501011137431</t>
+  </si>
+  <si>
+    <t>7502005513439</t>
+  </si>
+  <si>
+    <t>8693029321816</t>
+  </si>
+  <si>
+    <t>7501011176713</t>
+  </si>
+  <si>
+    <t>7500478014477</t>
+  </si>
+  <si>
+    <t>7502005513415</t>
+  </si>
+  <si>
+    <t>7506306413375</t>
+  </si>
+  <si>
+    <t>000861040122</t>
+  </si>
+  <si>
+    <t>80050780</t>
+  </si>
+  <si>
+    <t>739944010706</t>
+  </si>
+  <si>
+    <t>7501008716458</t>
+  </si>
+  <si>
+    <t>75056643</t>
+  </si>
+  <si>
+    <t>038629001627</t>
+  </si>
+  <si>
+    <t>7501059299443</t>
+  </si>
+  <si>
+    <t>739944007140</t>
+  </si>
+  <si>
+    <t>7501000116430</t>
+  </si>
+  <si>
+    <t>7622210833631</t>
+  </si>
+  <si>
+    <t>7501607500182</t>
+  </si>
+  <si>
+    <t>7501030472698</t>
+  </si>
+  <si>
+    <t>7501011118119</t>
+  </si>
+  <si>
+    <t>7501000132706</t>
+  </si>
+  <si>
+    <t>7501011148963</t>
+  </si>
+  <si>
+    <t>7501000127344</t>
+  </si>
+  <si>
+    <t>7501000641482</t>
+  </si>
+  <si>
+    <t>7506174500214</t>
+  </si>
+  <si>
+    <t>604722005871</t>
+  </si>
+  <si>
+    <t>757528022556</t>
+  </si>
+  <si>
+    <t>604722008032</t>
+  </si>
+  <si>
+    <t>7501000658923</t>
+  </si>
+  <si>
+    <t>7501011110335</t>
+  </si>
+  <si>
+    <t>7501030490463</t>
+  </si>
+  <si>
+    <t>7501480900048</t>
+  </si>
+  <si>
+    <t>7622300268633</t>
+  </si>
+  <si>
+    <t>7501058637086</t>
+  </si>
+  <si>
+    <t>7501761863062</t>
+  </si>
+  <si>
+    <t>7501059279575</t>
+  </si>
+  <si>
+    <t>7503007058103</t>
+  </si>
+  <si>
+    <t>7503007211064</t>
+  </si>
+  <si>
+    <t>885600053669</t>
+  </si>
+  <si>
+    <t>885600055801</t>
+  </si>
+  <si>
+    <t>681442201448</t>
+  </si>
+  <si>
+    <t>9804210260022</t>
+  </si>
+  <si>
+    <t>850851006214</t>
+  </si>
+  <si>
+    <t>9804210160018</t>
+  </si>
+  <si>
+    <t>681442188954</t>
+  </si>
+  <si>
+    <t>681442689208</t>
+  </si>
+  <si>
+    <t>7500462458355</t>
+  </si>
+  <si>
+    <t>750481</t>
+  </si>
+  <si>
+    <t>7506086279567</t>
+  </si>
+  <si>
+    <t>753291</t>
+  </si>
+  <si>
+    <t>7500463102608</t>
+  </si>
+  <si>
+    <t>887961713787</t>
+  </si>
+  <si>
+    <t>611042000011</t>
+  </si>
+  <si>
+    <t>611042000028</t>
+  </si>
+  <si>
+    <t>611042000042</t>
+  </si>
+  <si>
+    <t>F15002</t>
+  </si>
+  <si>
+    <t>5000394026773</t>
+  </si>
+  <si>
+    <t>7501206696231</t>
+  </si>
+  <si>
+    <t>7506240620037</t>
+  </si>
+  <si>
+    <t>7501206649176</t>
+  </si>
+  <si>
+    <t>633349011590</t>
+  </si>
+  <si>
+    <t>711774028755</t>
+  </si>
+  <si>
+    <t>7501206655252</t>
+  </si>
+  <si>
+    <t>7506240651987</t>
+  </si>
+  <si>
+    <t>7500112955371</t>
+  </si>
+  <si>
+    <t>721672001095</t>
+  </si>
+  <si>
+    <t>7500112193384</t>
+  </si>
+  <si>
+    <t>721672001958</t>
+  </si>
+  <si>
+    <t>7501206659441</t>
+  </si>
+  <si>
+    <t>7500112193353</t>
+  </si>
+  <si>
+    <t>7503022782747</t>
+  </si>
+  <si>
+    <t>2730104</t>
+  </si>
+  <si>
+    <t>7506240624004</t>
+  </si>
+  <si>
+    <t>7502244364823</t>
+  </si>
+  <si>
+    <t>010320</t>
+  </si>
+  <si>
+    <t>010213</t>
+  </si>
+  <si>
+    <t>2830728</t>
+  </si>
+  <si>
+    <t>2831628</t>
+  </si>
+  <si>
+    <t>040006</t>
+  </si>
+  <si>
+    <t>2123920</t>
+  </si>
+  <si>
+    <t>2740101</t>
+  </si>
+  <si>
+    <t>757624</t>
+  </si>
+  <si>
+    <t>7501059950313</t>
+  </si>
+  <si>
+    <t>685596001626</t>
+  </si>
+  <si>
+    <t>2126700</t>
+  </si>
+  <si>
+    <t>7501793301020</t>
+  </si>
+  <si>
+    <t>2145700</t>
+  </si>
+  <si>
+    <t>2145500</t>
+  </si>
+  <si>
+    <t>2830628</t>
+  </si>
+  <si>
+    <t>7503007209498</t>
+  </si>
+  <si>
+    <t>2122320</t>
+  </si>
+  <si>
+    <t>7506245103245</t>
+  </si>
+  <si>
+    <t>2124720</t>
+  </si>
+  <si>
+    <t>078917888059</t>
+  </si>
+  <si>
+    <t>2122220</t>
+  </si>
+  <si>
+    <t>2127300</t>
+  </si>
+  <si>
+    <t>078917109970</t>
+  </si>
+  <si>
+    <t>2122102</t>
+  </si>
+  <si>
+    <t>2121902</t>
+  </si>
+  <si>
+    <t>7502210610046</t>
+  </si>
+  <si>
+    <t>7502210617090</t>
+  </si>
+  <si>
+    <t>2122620</t>
+  </si>
+  <si>
+    <t>7506245103795</t>
+  </si>
+  <si>
+    <t>2114813</t>
+  </si>
+  <si>
+    <t>980881</t>
+  </si>
+  <si>
+    <t>7506350102799</t>
+  </si>
+  <si>
+    <t>771172</t>
+  </si>
+  <si>
+    <t>07002595</t>
+  </si>
+  <si>
+    <t>7506350102782</t>
+  </si>
+  <si>
+    <t>760225</t>
+  </si>
+  <si>
+    <t>7500456985492</t>
+  </si>
+  <si>
+    <t>760249</t>
+  </si>
+  <si>
+    <t>752984</t>
+  </si>
+  <si>
+    <t>7500202893873</t>
+  </si>
+  <si>
+    <t>7506350109552</t>
+  </si>
+  <si>
+    <t>7506350108364</t>
+  </si>
+  <si>
+    <t>7506350106339</t>
+  </si>
+  <si>
+    <t>752827</t>
+  </si>
+  <si>
+    <t>09057296</t>
+  </si>
+  <si>
+    <t>7506350103277</t>
+  </si>
+  <si>
+    <t>7506350102775</t>
+  </si>
+  <si>
+    <t>7501943488625</t>
+  </si>
+  <si>
+    <t>0781718918947</t>
+  </si>
+  <si>
+    <t>7501036622479</t>
+  </si>
+  <si>
+    <t>7509546074986</t>
+  </si>
+  <si>
+    <t>7501279710117</t>
+  </si>
+  <si>
+    <t>7509546077048</t>
+  </si>
+  <si>
+    <t>7501019006609</t>
+  </si>
+  <si>
+    <t>7501032925956</t>
+  </si>
+  <si>
+    <t>012388003177</t>
+  </si>
+  <si>
+    <t>7501021146102</t>
+  </si>
+  <si>
+    <t>7501943466364</t>
+  </si>
+  <si>
+    <t>7501140700315</t>
+  </si>
+  <si>
+    <t>7502208805263</t>
+  </si>
+  <si>
+    <t>7503006503863</t>
+  </si>
+  <si>
+    <t>7501058786548</t>
+  </si>
+  <si>
+    <t>7501032901912</t>
+  </si>
+  <si>
+    <t>7501032905064</t>
+  </si>
+  <si>
+    <t>7500435126090</t>
+  </si>
+  <si>
+    <t>7501377000295</t>
+  </si>
+  <si>
+    <t>7500435127431</t>
+  </si>
+  <si>
+    <t>7501025454029</t>
+  </si>
+  <si>
+    <t>7502269960178</t>
+  </si>
+  <si>
+    <t>7506339316940</t>
+  </si>
+  <si>
+    <t>750137700059</t>
+  </si>
+  <si>
+    <t>7501025408121</t>
+  </si>
+  <si>
+    <t>7501042305205</t>
+  </si>
+  <si>
+    <t>7509546006420</t>
+  </si>
+  <si>
+    <t>7500435136426</t>
+  </si>
+  <si>
+    <t>744831150359</t>
+  </si>
+  <si>
+    <t>200000071427</t>
+  </si>
+  <si>
+    <t>073067601183</t>
+  </si>
+  <si>
+    <t>7501058711670</t>
+  </si>
+  <si>
+    <t>7501377571221</t>
+  </si>
+  <si>
+    <t>7501010510211</t>
+  </si>
+  <si>
+    <t>7502269960222</t>
+  </si>
+  <si>
+    <t>7501058715364</t>
+  </si>
+  <si>
+    <t>7500435138659</t>
+  </si>
+  <si>
+    <t>7791130000666</t>
+  </si>
+  <si>
+    <t>7501026009044</t>
+  </si>
+  <si>
+    <t>7501065064189</t>
+  </si>
+  <si>
+    <t>310158081111</t>
+  </si>
+  <si>
+    <t>7501026027499</t>
+  </si>
+  <si>
+    <t>7502249010503</t>
+  </si>
+  <si>
+    <t>7501035910089</t>
+  </si>
+  <si>
+    <t>7501007499383</t>
+  </si>
+  <si>
+    <t>070330912021</t>
+  </si>
+  <si>
+    <t>7501032940300</t>
+  </si>
+  <si>
+    <t>7501377220020</t>
+  </si>
+  <si>
+    <t>7501377000059</t>
+  </si>
+  <si>
+    <t>3014260279165</t>
+  </si>
+  <si>
+    <t>619585205214</t>
+  </si>
+  <si>
+    <t>7500435127370</t>
+  </si>
+  <si>
+    <t>7503006503665</t>
+  </si>
+  <si>
+    <t>7501032913847</t>
+  </si>
+  <si>
+    <t>7501036622264</t>
+  </si>
+  <si>
+    <t>7891150025998</t>
+  </si>
+  <si>
+    <t>7506309807850</t>
+  </si>
+  <si>
+    <t>7502283330025</t>
+  </si>
+  <si>
+    <t>7501377001049</t>
+  </si>
+  <si>
+    <t>073067501186</t>
+  </si>
+  <si>
+    <t>7501032901660</t>
+  </si>
+  <si>
+    <t>7501032929299</t>
+  </si>
+  <si>
+    <t>7702010382079</t>
+  </si>
+  <si>
+    <t>7501032913809</t>
+  </si>
+  <si>
+    <t>7501377006112</t>
+  </si>
+  <si>
+    <t>7501943458574</t>
+  </si>
+  <si>
+    <t>7501032920401</t>
+  </si>
+  <si>
+    <t>7501943468443</t>
+  </si>
+  <si>
+    <t>7500435127363</t>
+  </si>
+  <si>
+    <t>7501377000615</t>
+  </si>
+  <si>
+    <t>744831123353</t>
+  </si>
+  <si>
+    <t>7509546066486</t>
+  </si>
+  <si>
+    <t>7501377000233</t>
+  </si>
+  <si>
+    <t>744831152759</t>
+  </si>
+  <si>
+    <t>7501060408339</t>
+  </si>
+  <si>
+    <t>7501377003050</t>
+  </si>
+  <si>
+    <t>7501025403843</t>
+  </si>
+  <si>
+    <t>7501025452667</t>
+  </si>
+  <si>
+    <t>7501377900243</t>
+  </si>
+  <si>
+    <t>7501032913038</t>
+  </si>
+  <si>
+    <t>7501557208756</t>
+  </si>
+  <si>
+    <t>7502249010534</t>
+  </si>
+  <si>
+    <t>7501102260024</t>
+  </si>
+  <si>
+    <t>073067601008</t>
+  </si>
+  <si>
+    <t>7501072601384</t>
+  </si>
+  <si>
+    <t>7501017375622</t>
+  </si>
+  <si>
+    <t>734474102013</t>
+  </si>
+  <si>
+    <t>744831190973</t>
+  </si>
+  <si>
+    <t>7506309873725</t>
+  </si>
+  <si>
+    <t>7501032914196</t>
+  </si>
+  <si>
+    <t>7896021624409</t>
+  </si>
+  <si>
+    <t>7896021623389</t>
+  </si>
+  <si>
+    <t>744831123407</t>
+  </si>
+  <si>
+    <t>7501943489035</t>
+  </si>
+  <si>
+    <t>5900273001566</t>
+  </si>
+  <si>
+    <t>7501058758156</t>
+  </si>
+  <si>
+    <t>649646900406</t>
+  </si>
+  <si>
+    <t>7502002342940</t>
+  </si>
+  <si>
+    <t>7501557209432</t>
+  </si>
+  <si>
+    <t>012388002910</t>
+  </si>
+  <si>
+    <t>7502249010206</t>
+  </si>
+  <si>
+    <t>7501377000271</t>
+  </si>
+  <si>
+    <t>7501026004629</t>
+  </si>
+  <si>
+    <t>7501010506207</t>
+  </si>
+  <si>
+    <t>7501072629012</t>
+  </si>
+  <si>
+    <t>7896021622009</t>
+  </si>
+  <si>
+    <t>7506350101792</t>
+  </si>
+  <si>
+    <t>752987</t>
+  </si>
+  <si>
+    <t>770741</t>
+  </si>
+  <si>
+    <t>7506350107718</t>
+  </si>
+  <si>
+    <t>601349012305</t>
+  </si>
+  <si>
+    <t>7506350106001</t>
+  </si>
+  <si>
+    <t>7506350103017</t>
+  </si>
+  <si>
+    <t>7506350102072</t>
+  </si>
+  <si>
+    <t>7506350106261</t>
+  </si>
+  <si>
+    <t>7506350102058</t>
+  </si>
+  <si>
+    <t>7506350102034</t>
+  </si>
+  <si>
+    <t>7506350102027</t>
+  </si>
+  <si>
+    <t>771170</t>
+  </si>
+  <si>
+    <t>6910108941111</t>
+  </si>
+  <si>
+    <t>7506350112392</t>
+  </si>
+  <si>
+    <t>6910108941107</t>
+  </si>
+  <si>
+    <t>6910108941113</t>
+  </si>
+  <si>
+    <t>757957</t>
+  </si>
+  <si>
+    <t>07000041</t>
+  </si>
+  <si>
+    <t>7501251024027</t>
+  </si>
+  <si>
+    <t>753101</t>
+  </si>
+  <si>
+    <t>7501251047095</t>
+  </si>
+  <si>
+    <t>07001260</t>
+  </si>
+  <si>
+    <t>7506350102140</t>
+  </si>
+  <si>
+    <t>7506350104007</t>
+  </si>
+  <si>
+    <t>7506350112187</t>
+  </si>
+  <si>
+    <t>07000096</t>
+  </si>
+  <si>
+    <t>07007378</t>
+  </si>
+  <si>
+    <t>771329</t>
+  </si>
+  <si>
+    <t>751136</t>
+  </si>
+  <si>
+    <t>0354681167741</t>
+  </si>
+  <si>
+    <t>7506350107664</t>
+  </si>
+  <si>
+    <t>07000010</t>
+  </si>
+  <si>
+    <t>741119</t>
+  </si>
+  <si>
+    <t>7506350109613</t>
+  </si>
+  <si>
+    <t>7506350107633</t>
+  </si>
+  <si>
+    <t>7506350106148</t>
+  </si>
+  <si>
+    <t>7506350113153</t>
+  </si>
+  <si>
+    <t>741117</t>
+  </si>
+  <si>
+    <t>7501251047149</t>
+  </si>
+  <si>
+    <t>7506350103031</t>
+  </si>
+  <si>
+    <t>3127</t>
+  </si>
+  <si>
+    <t>7501031323449</t>
+  </si>
+  <si>
+    <t>75001759</t>
+  </si>
+  <si>
+    <t>7802800713646</t>
+  </si>
+  <si>
+    <t>7622210841391</t>
+  </si>
+  <si>
+    <t>7802800727407</t>
+  </si>
+  <si>
+    <t>7622210255341</t>
+  </si>
+  <si>
+    <t>7501035046016</t>
+  </si>
+  <si>
+    <t>7506192507714</t>
+  </si>
+  <si>
+    <t>7802800713752</t>
+  </si>
+  <si>
+    <t>7622210253583</t>
+  </si>
+  <si>
+    <t>4858</t>
+  </si>
+  <si>
+    <t>7501441604121</t>
+  </si>
+  <si>
+    <t>7802800713776</t>
+  </si>
+  <si>
+    <t>7622210253439</t>
+  </si>
+  <si>
+    <t>7622210254610</t>
+  </si>
+  <si>
+    <t>9002490100070</t>
+  </si>
+  <si>
+    <t>7802800713684</t>
+  </si>
+  <si>
+    <t>7501073840331</t>
+  </si>
+  <si>
+    <t>7534568978783</t>
+  </si>
+  <si>
+    <t>036731502001</t>
+  </si>
+  <si>
+    <t>7622210254511</t>
+  </si>
+  <si>
+    <t>7802800713806</t>
+  </si>
+  <si>
+    <t>7501055339983</t>
+  </si>
+  <si>
+    <t>7622210253507</t>
+  </si>
+  <si>
+    <t>7501055314027</t>
+  </si>
+  <si>
+    <t>7501055314065</t>
+  </si>
+  <si>
+    <t>7501055314850</t>
+  </si>
+  <si>
+    <t>7622210841490</t>
+  </si>
+  <si>
+    <t>7622210688712</t>
+  </si>
+  <si>
+    <t>7802800713677</t>
+  </si>
+  <si>
+    <t>7622210254436</t>
+  </si>
+  <si>
+    <t>7622210688897</t>
+  </si>
+  <si>
+    <t>7503020038228</t>
+  </si>
+  <si>
+    <t>7503020038266</t>
+  </si>
+  <si>
+    <t>7502219150987</t>
+  </si>
+  <si>
+    <t>7503002005538</t>
+  </si>
+  <si>
+    <t>7500462728403</t>
+  </si>
+  <si>
+    <t>00479</t>
+  </si>
+  <si>
+    <t>7501625016726</t>
+  </si>
+  <si>
+    <t>01053</t>
+  </si>
+  <si>
+    <t>00406</t>
+  </si>
+  <si>
+    <t>00871</t>
+  </si>
+  <si>
+    <t>7506350109576</t>
+  </si>
+  <si>
+    <t>7506350100528</t>
+  </si>
+  <si>
+    <t>00481</t>
+  </si>
+  <si>
+    <t>770776</t>
+  </si>
+  <si>
+    <t>00266</t>
+  </si>
+  <si>
+    <t>7506350100740</t>
+  </si>
+  <si>
+    <t>7506350100115</t>
+  </si>
+  <si>
+    <t>7506350101341</t>
+  </si>
+  <si>
+    <t>00033</t>
+  </si>
+  <si>
+    <t>7506350100825</t>
+  </si>
+  <si>
+    <t>7506350111777</t>
+  </si>
+  <si>
+    <t>00869</t>
+  </si>
+  <si>
+    <t>7501625016719</t>
+  </si>
+  <si>
+    <t>7506350111043</t>
+  </si>
+  <si>
+    <t>7506350100818</t>
+  </si>
+  <si>
+    <t>7506350111968</t>
+  </si>
+  <si>
+    <t>7506350100764</t>
+  </si>
+  <si>
+    <t>7506107507327</t>
+  </si>
+  <si>
+    <t>7506350100900</t>
+  </si>
+  <si>
+    <t>7506350101587</t>
+  </si>
+  <si>
+    <t>602760005426</t>
+  </si>
+  <si>
+    <t>7502280164432</t>
+  </si>
+  <si>
+    <t>7501214980797</t>
+  </si>
+  <si>
+    <t>602760000582</t>
+  </si>
+  <si>
+    <t>7502280161868</t>
+  </si>
+  <si>
+    <t>070330354128</t>
+  </si>
+  <si>
+    <t>7501014689326</t>
+  </si>
+  <si>
+    <t>7501145600139</t>
+  </si>
+  <si>
+    <t>7501214921134</t>
+  </si>
+  <si>
+    <t>7501014650012</t>
+  </si>
+  <si>
+    <t>7501014512020</t>
+  </si>
+  <si>
+    <t>070330354623</t>
+  </si>
+  <si>
+    <t>070330156722</t>
+  </si>
+  <si>
+    <t>3270220029014</t>
+  </si>
+  <si>
+    <t>070330407282</t>
+  </si>
+  <si>
+    <t>602760005464</t>
+  </si>
+  <si>
+    <t>7501015217412</t>
+  </si>
+  <si>
+    <t>7501147419159</t>
+  </si>
+  <si>
+    <t>602760004580</t>
+  </si>
+  <si>
+    <t>7501015207413</t>
+  </si>
+  <si>
+    <t>602760001473</t>
+  </si>
+  <si>
+    <t>7501428727164</t>
+  </si>
+  <si>
+    <t>602760003255</t>
+  </si>
+  <si>
+    <t>7501015201091</t>
+  </si>
+  <si>
+    <t>8907016010387</t>
+  </si>
+  <si>
+    <t>7502280162667</t>
+  </si>
+  <si>
+    <t>751084</t>
+  </si>
+  <si>
+    <t>602760000575</t>
+  </si>
+  <si>
+    <t>751075</t>
+  </si>
+  <si>
+    <t>751088</t>
+  </si>
+  <si>
+    <t>7516011904144</t>
+  </si>
+  <si>
+    <t>756723</t>
+  </si>
+  <si>
+    <t>7502007608781</t>
+  </si>
+  <si>
+    <t>757732</t>
+  </si>
+  <si>
+    <t>7502007308613</t>
+  </si>
+  <si>
+    <t>757796</t>
+  </si>
+  <si>
+    <t>757856</t>
+  </si>
+  <si>
+    <t>7506451102872</t>
+  </si>
+  <si>
+    <t>757690</t>
+  </si>
+  <si>
+    <t>7506451102544</t>
+  </si>
+  <si>
+    <t>7502007308750</t>
+  </si>
+  <si>
+    <t>7502007308453</t>
+  </si>
+  <si>
+    <t>757688</t>
+  </si>
+  <si>
+    <t>757358</t>
+  </si>
+  <si>
+    <t>7506141904151</t>
+  </si>
+  <si>
+    <t>7506141904571</t>
+  </si>
+  <si>
+    <t>757685</t>
+  </si>
+  <si>
+    <t>7502007308477</t>
+  </si>
+  <si>
+    <t>7506141904717</t>
+  </si>
+  <si>
+    <t>7506141904496</t>
+  </si>
+  <si>
+    <t>7506141904175</t>
+  </si>
+  <si>
+    <t>7502007303151</t>
+  </si>
+  <si>
+    <t>756838</t>
+  </si>
+  <si>
+    <t>7506451101127</t>
+  </si>
+  <si>
+    <t>7506141904458</t>
+  </si>
+  <si>
+    <t>757842</t>
+  </si>
+  <si>
+    <t>7502007304592</t>
+  </si>
+  <si>
+    <t>7502007308774</t>
+  </si>
+  <si>
+    <t>7502007304578</t>
+  </si>
+  <si>
+    <t>7502007308507</t>
+  </si>
+  <si>
+    <t>7506451100878</t>
+  </si>
+  <si>
+    <t>7501157606518</t>
+  </si>
+  <si>
+    <t>7506141904687</t>
+  </si>
+  <si>
+    <t>7501920517904</t>
+  </si>
+  <si>
+    <t>7506451100373</t>
+  </si>
+  <si>
+    <t>755214</t>
+  </si>
+  <si>
+    <t>7506141904434</t>
+  </si>
+  <si>
+    <t>7506451100885</t>
+  </si>
+  <si>
+    <t>7506451101196</t>
+  </si>
+  <si>
+    <t>7506451100427</t>
+  </si>
+  <si>
+    <t>7506451100380</t>
+  </si>
+  <si>
+    <t>7501157606013</t>
+  </si>
+  <si>
+    <t>7501920518109</t>
+  </si>
+  <si>
+    <t>7501920518550</t>
+  </si>
+  <si>
+    <t>7501157606211</t>
+  </si>
+  <si>
+    <t>7501157605115</t>
+  </si>
+  <si>
+    <t>7500462379209</t>
+  </si>
+  <si>
+    <t>7501000912803</t>
+  </si>
+  <si>
+    <t>7503009612005</t>
+  </si>
+  <si>
+    <t>7503005933043</t>
+  </si>
+  <si>
+    <t>102671</t>
+  </si>
+  <si>
+    <t>051000195326</t>
+  </si>
+  <si>
+    <t>982297</t>
+  </si>
+  <si>
+    <t>7501041416759</t>
+  </si>
+  <si>
+    <t>102672</t>
+  </si>
+  <si>
+    <t>644209004386</t>
+  </si>
+  <si>
+    <t>7503005933005</t>
+  </si>
+  <si>
+    <t>021000037445</t>
+  </si>
+  <si>
+    <t>102677</t>
+  </si>
+  <si>
+    <t>722776020012</t>
+  </si>
+  <si>
+    <t>982299</t>
+  </si>
+  <si>
+    <t>7501017020041</t>
+  </si>
+  <si>
+    <t>7501017053032</t>
+  </si>
+  <si>
+    <t>758104006298</t>
+  </si>
+  <si>
+    <t>7500464075505</t>
+  </si>
+  <si>
+    <t>7501003340115</t>
+  </si>
+  <si>
+    <t>058897093841</t>
+  </si>
+  <si>
+    <t>7501011390492</t>
+  </si>
+  <si>
+    <t>7503005933012</t>
+  </si>
+  <si>
+    <t>7503009612074</t>
+  </si>
+  <si>
+    <t>7501058628268</t>
+  </si>
+  <si>
+    <t>758104003785</t>
+  </si>
+  <si>
+    <t>783760101018</t>
+  </si>
+  <si>
+    <t>7501017004423</t>
+  </si>
+  <si>
+    <t>7501017004140</t>
+  </si>
+  <si>
+    <t>046100010976</t>
+  </si>
+  <si>
+    <t>7501017005918</t>
+  </si>
+  <si>
+    <t>7501214102113</t>
+  </si>
+  <si>
+    <t>7501058616470</t>
+  </si>
+  <si>
+    <t>7501017005956</t>
+  </si>
+  <si>
+    <t>7501052420011</t>
+  </si>
+  <si>
+    <t>7501058614193</t>
+  </si>
+  <si>
+    <t>7501071307928</t>
+  </si>
+  <si>
+    <t>7501017006410</t>
+  </si>
+  <si>
+    <t>094331154792</t>
+  </si>
+  <si>
+    <t>7500326140273</t>
+  </si>
+  <si>
+    <t>7503012018047</t>
+  </si>
+  <si>
+    <t>608875005436</t>
+  </si>
+  <si>
+    <t>7503005933593</t>
+  </si>
+  <si>
+    <t>094331481003</t>
+  </si>
+  <si>
+    <t>75036393</t>
+  </si>
+  <si>
+    <t>619313000258</t>
+  </si>
+  <si>
+    <t>7501020548440</t>
+  </si>
+  <si>
+    <t>7501020548495</t>
+  </si>
+  <si>
+    <t>7501017003761</t>
+  </si>
+  <si>
+    <t>7503016372374</t>
+  </si>
+  <si>
+    <t>7501086802753</t>
+  </si>
+  <si>
+    <t>7501020514315</t>
+  </si>
+  <si>
+    <t>7501023315032</t>
+  </si>
+  <si>
+    <t>044774030306</t>
+  </si>
+  <si>
+    <t>7501017004041</t>
+  </si>
+  <si>
+    <t>7501052420431</t>
+  </si>
+  <si>
+    <t>7501020532036</t>
+  </si>
+  <si>
+    <t>7503009612012</t>
+  </si>
+  <si>
+    <t>7501059295193</t>
+  </si>
+  <si>
+    <t>636817114250</t>
+  </si>
+  <si>
+    <t>7622210697271</t>
+  </si>
+  <si>
+    <t>7501020526004</t>
+  </si>
+  <si>
+    <t>17503000134206</t>
+  </si>
+  <si>
+    <t>7501000904228</t>
+  </si>
+  <si>
+    <t>7501738131231</t>
+  </si>
+  <si>
+    <t>7501738200203</t>
+  </si>
+  <si>
+    <t>7501060700310</t>
+  </si>
+  <si>
+    <t>7501071301452</t>
+  </si>
+  <si>
+    <t>7501125419034</t>
+  </si>
+  <si>
+    <t>7502233117225</t>
+  </si>
+  <si>
+    <t>094331036890</t>
+  </si>
+  <si>
+    <t>7501468722228</t>
+  </si>
+  <si>
+    <t>7501204001006</t>
+  </si>
+  <si>
+    <t>7501059281950</t>
+  </si>
+  <si>
+    <t>7501005110563</t>
+  </si>
+  <si>
+    <t>7503005933173</t>
+  </si>
+  <si>
+    <t>75043018</t>
+  </si>
+  <si>
+    <t>7501017045884</t>
+  </si>
+  <si>
+    <t>7501840712373</t>
+  </si>
+  <si>
+    <t>7501086801046</t>
+  </si>
+  <si>
+    <t>7501058611697</t>
+  </si>
+  <si>
+    <t>7501039121610</t>
+  </si>
+  <si>
+    <t>7501003302083</t>
+  </si>
+  <si>
+    <t>7501279700200</t>
+  </si>
+  <si>
+    <t>633148104547</t>
+  </si>
+  <si>
+    <t>7501840712618</t>
+  </si>
+  <si>
+    <t>7501000984770</t>
+  </si>
+  <si>
+    <t>7506306311732</t>
+  </si>
+  <si>
+    <t>7501020510041</t>
+  </si>
+  <si>
+    <t>7506306300064</t>
+  </si>
+  <si>
+    <t>7501003125309</t>
+  </si>
+  <si>
+    <t>058897090536</t>
+  </si>
+  <si>
+    <t>75026196</t>
+  </si>
+  <si>
+    <t>7503016372282</t>
+  </si>
+  <si>
+    <t>7501209709938</t>
+  </si>
+  <si>
+    <t>7501005185936</t>
+  </si>
+  <si>
+    <t>7501005102674</t>
+  </si>
+  <si>
+    <t>7501003123435</t>
+  </si>
+  <si>
+    <t>7506306311749</t>
+  </si>
+  <si>
+    <t>7503006152023</t>
+  </si>
+  <si>
+    <t>7500478005512</t>
+  </si>
+  <si>
+    <t>7501003302748</t>
+  </si>
+  <si>
+    <t>608875006273</t>
+  </si>
+  <si>
+    <t>7501209708054</t>
+  </si>
+  <si>
+    <t>041331050524</t>
+  </si>
+  <si>
+    <t>8801056091965</t>
+  </si>
+  <si>
+    <t>7501059278721</t>
+  </si>
+  <si>
+    <t>016000490987</t>
+  </si>
+  <si>
+    <t>7501041415608</t>
+  </si>
+  <si>
+    <t>7501209705329</t>
+  </si>
+  <si>
+    <t>016000289970</t>
+  </si>
+  <si>
+    <t>7501531900904</t>
+  </si>
+  <si>
+    <t>7501086801077</t>
+  </si>
+  <si>
+    <t>7501279700514</t>
+  </si>
+  <si>
+    <t>102490</t>
+  </si>
+  <si>
+    <t>7501209701765</t>
+  </si>
+  <si>
+    <t>7501041415912</t>
+  </si>
+  <si>
+    <t>7501100401054</t>
+  </si>
+  <si>
+    <t>7501030491668</t>
+  </si>
+  <si>
+    <t>75012212</t>
+  </si>
+  <si>
+    <t>613008738846</t>
+  </si>
+  <si>
+    <t>7506306305618</t>
+  </si>
+  <si>
+    <t>7501058620750</t>
+  </si>
+  <si>
+    <t>793956000513</t>
+  </si>
+  <si>
+    <t>608875005382</t>
+  </si>
+  <si>
+    <t>7506306311510</t>
+  </si>
+  <si>
+    <t>7501000111800</t>
+  </si>
+  <si>
+    <t>7501000904198</t>
+  </si>
+  <si>
+    <t>723707884628</t>
+  </si>
+  <si>
+    <t>7501005100854</t>
+  </si>
+  <si>
+    <t>102676</t>
+  </si>
+  <si>
+    <t>7501069210728</t>
+  </si>
+  <si>
+    <t>7501000902156</t>
+  </si>
+  <si>
+    <t>7501017660070</t>
+  </si>
+  <si>
+    <t>7501055329366</t>
+  </si>
+  <si>
+    <t>7506306307476</t>
+  </si>
+  <si>
+    <t>7501018312114</t>
+  </si>
+  <si>
+    <t>7501003124623</t>
+  </si>
+  <si>
+    <t>7501209708061</t>
+  </si>
+  <si>
+    <t>7503013543289</t>
+  </si>
+  <si>
+    <t>014800515329</t>
+  </si>
+  <si>
+    <t>7501079016211</t>
+  </si>
+  <si>
+    <t>75009861</t>
+  </si>
+  <si>
+    <t>7501100414061</t>
+  </si>
+  <si>
+    <t>7501204000016</t>
+  </si>
+  <si>
+    <t>7501020560695</t>
+  </si>
+  <si>
+    <t>7501000906246</t>
+  </si>
+  <si>
+    <t>735051016372</t>
+  </si>
+  <si>
+    <t>7501013101683</t>
+  </si>
+  <si>
+    <t>7501209708047</t>
+  </si>
+  <si>
+    <t>7401030031546</t>
+  </si>
+  <si>
+    <t>7501058614315</t>
+  </si>
+  <si>
+    <t>608875006259</t>
+  </si>
+  <si>
+    <t>7501000904747</t>
+  </si>
+  <si>
+    <t>7501840712694</t>
+  </si>
+  <si>
+    <t>7501100414023</t>
+  </si>
+  <si>
+    <t>7501017006915</t>
+  </si>
+  <si>
+    <t>7501000669912</t>
+  </si>
+  <si>
+    <t>7501003393180</t>
+  </si>
+  <si>
+    <t>608875005504</t>
+  </si>
+  <si>
+    <t>608875005511</t>
+  </si>
+  <si>
+    <t>7501295600621</t>
+  </si>
+  <si>
+    <t>7501018312091</t>
+  </si>
+  <si>
+    <t>7501018312121</t>
+  </si>
+  <si>
+    <t>7501018312152</t>
+  </si>
+  <si>
+    <t>7501013100969</t>
+  </si>
+  <si>
+    <t>613963413178</t>
+  </si>
+  <si>
+    <t>7501840712496</t>
+  </si>
+  <si>
+    <t>7501840712700</t>
+  </si>
+  <si>
+    <t>019836102659</t>
+  </si>
+  <si>
+    <t>7501840712441</t>
+  </si>
+  <si>
+    <t>7501013101690</t>
+  </si>
+  <si>
+    <t>7501079016440</t>
+  </si>
+  <si>
+    <t>7501100401122</t>
+  </si>
+  <si>
+    <t>041789002991</t>
+  </si>
+  <si>
+    <t>613963413147</t>
+  </si>
+  <si>
+    <t>7501840712731</t>
+  </si>
+  <si>
+    <t>613963413277</t>
+  </si>
+  <si>
+    <t>080432400395</t>
+  </si>
+  <si>
+    <t>082000747345</t>
+  </si>
+  <si>
+    <t>7506064300221</t>
+  </si>
+  <si>
+    <t>085000007488</t>
+  </si>
+  <si>
+    <t>7501048840212</t>
+  </si>
+  <si>
+    <t>7501032485016</t>
+  </si>
+  <si>
+    <t>7501035011229</t>
+  </si>
+  <si>
+    <t>7501009222729</t>
+  </si>
+  <si>
+    <t>7501027272706</t>
+  </si>
+  <si>
+    <t>8410190589568</t>
+  </si>
+  <si>
+    <t>7501056332082</t>
+  </si>
+  <si>
+    <t>7501027553713</t>
+  </si>
+  <si>
+    <t>7501056330330</t>
+  </si>
+  <si>
+    <t>7501056330385</t>
+  </si>
+  <si>
+    <t>7501199418377</t>
+  </si>
+  <si>
+    <t>7501001165321</t>
+  </si>
+  <si>
+    <t>7506195144947</t>
+  </si>
+  <si>
+    <t>105519</t>
+  </si>
+  <si>
+    <t>7501007500843</t>
+  </si>
+  <si>
+    <t>7509546072685</t>
+  </si>
+  <si>
+    <t>7502278000896</t>
+  </si>
+  <si>
+    <t>7509546074511</t>
+  </si>
+  <si>
+    <t>7501199414003</t>
+  </si>
+  <si>
+    <t>75001872</t>
+  </si>
+  <si>
+    <t>4005808802821</t>
+  </si>
+  <si>
+    <t>7502277200006</t>
+  </si>
+  <si>
+    <t>7500435126809</t>
+  </si>
+  <si>
+    <t>7501054500193</t>
+  </si>
+  <si>
+    <t>7501027555502</t>
+  </si>
+  <si>
+    <t>7506306205055</t>
+  </si>
+  <si>
+    <t>7500435147576</t>
+  </si>
+  <si>
+    <t>6920577287366</t>
+  </si>
+  <si>
+    <t>75064822</t>
+  </si>
+  <si>
+    <t>7501056332075</t>
+  </si>
+  <si>
+    <t>7501035901780</t>
+  </si>
+  <si>
+    <t>7506339349047</t>
+  </si>
+  <si>
+    <t>7501001164003</t>
+  </si>
+  <si>
+    <t>7503005405120</t>
+  </si>
+  <si>
+    <t>7501006721133</t>
+  </si>
+  <si>
+    <t>7509552826593</t>
+  </si>
+  <si>
+    <t>7702018913619</t>
+  </si>
+  <si>
+    <t>7791293025865</t>
+  </si>
+  <si>
+    <t>7502277200013</t>
+  </si>
+  <si>
+    <t>7501039701645</t>
+  </si>
+  <si>
+    <t>7501007529714</t>
+  </si>
+  <si>
+    <t>7506306211650</t>
+  </si>
+  <si>
+    <t>757918</t>
+  </si>
+  <si>
+    <t>757919</t>
+  </si>
+  <si>
+    <t>7501027553768</t>
+  </si>
+  <si>
+    <t>7501289901482</t>
+  </si>
+  <si>
+    <t>7501289901123</t>
+  </si>
+  <si>
+    <t>7502007275076</t>
+  </si>
+  <si>
+    <t>7506192503358</t>
+  </si>
+  <si>
+    <t>7702035468352</t>
+  </si>
+  <si>
+    <t>7791293035468</t>
+  </si>
+  <si>
+    <t>7791293022581</t>
+  </si>
+  <si>
+    <t>7506306220874</t>
+  </si>
+  <si>
+    <t>7506306220959</t>
+  </si>
+  <si>
+    <t>7502221183881</t>
+  </si>
+  <si>
+    <t>7501943489233</t>
+  </si>
+  <si>
+    <t>757671</t>
+  </si>
+  <si>
+    <t>7501044212419</t>
+  </si>
+  <si>
+    <t>7506192504713</t>
+  </si>
+  <si>
+    <t>7501289903011</t>
+  </si>
+  <si>
+    <t>7506306210578</t>
+  </si>
+  <si>
+    <t>7506306237322</t>
+  </si>
+  <si>
+    <t>7501199418391</t>
+  </si>
+  <si>
+    <t>4005808803002</t>
+  </si>
+  <si>
+    <t>7501065904096</t>
+  </si>
+  <si>
+    <t>759684273094</t>
+  </si>
+  <si>
+    <t>7501039702550</t>
+  </si>
+  <si>
+    <t>7509552913682</t>
+  </si>
+  <si>
+    <t>105518</t>
+  </si>
+  <si>
+    <t>7500435139229</t>
+  </si>
+  <si>
+    <t>7702018880409</t>
+  </si>
+  <si>
+    <t>759684152078</t>
+  </si>
+  <si>
+    <t>7501044212334</t>
+  </si>
+  <si>
+    <t>7501044212365</t>
+  </si>
+  <si>
+    <t>7501361150067</t>
+  </si>
+  <si>
+    <t>7503005405021</t>
+  </si>
+  <si>
+    <t>756554</t>
+  </si>
+  <si>
+    <t>07003059</t>
+  </si>
+  <si>
+    <t>771236</t>
+  </si>
+  <si>
+    <t>756547</t>
+  </si>
+  <si>
+    <t>770287</t>
+  </si>
+  <si>
+    <t>771235</t>
+  </si>
+  <si>
+    <t>07003257</t>
+  </si>
+  <si>
+    <t>07003387</t>
+  </si>
+  <si>
+    <t>754633</t>
+  </si>
+  <si>
+    <t>07003332</t>
   </si>
 </sst>
 </file>
@@ -559,8 +2662,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D926D3E-1857-4050-B61D-B20BFAA546B8}">
-  <dimension ref="A1:A59"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A6E62EF-CB98-4E52-B501-0EA0975794F5}">
+  <dimension ref="A1:A759"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:A1048576"/>
@@ -863,6 +2966,3506 @@
         <v>58</v>
       </c>
     </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A61" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A62" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A63" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A64" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A65" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A66" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A67" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A68" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A69" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A70" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A71" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A72" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A73" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A74" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A75" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A76" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A77" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A78" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A79" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A80" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A81" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A82" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A83" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A84" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A85" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A86" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A87" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A88" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A89" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A90" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A91" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A92" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A93" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A94" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A95" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A96" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A97" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A98" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A99" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A100" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A101" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A102" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A103" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A104" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A105" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A106" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A107" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A108" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A109" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A110" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A111" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A112" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A113" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A114" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A115" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A116" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A117" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A118" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A119" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A120" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A121" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A122" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A123" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A124" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A125" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A126" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A127" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A128" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A129" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A130" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A131" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A132" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A133" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A134" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A135" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A136" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A137" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A138" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A139" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A140" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A141" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A142" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A143" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A144" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A145" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A146" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A147" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A148" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A149" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A150" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A151" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A152" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A153" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A154" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A155" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A156" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A157" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A158" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A159" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A160" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A161" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A162" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A163" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A164" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A165" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A166" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A167" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A168" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A169" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A170" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A171" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A172" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A173" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A174" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A175" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A176" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A177" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A178" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A179" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A180" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A181" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A182" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A183" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A184" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A185" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A186" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A187" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A188" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A189" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A190" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A191" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A192" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A193" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A194" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A195" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A196" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A197" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A198" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A199" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A200" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A201" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A202" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A203" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A204" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A205" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A206" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A207" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A208" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A209" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A210" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A211" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A212" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A213" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A214" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A215" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A216" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A217" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A218" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A219" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A220" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A221" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A222" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A223" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A224" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A225" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A226" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A227" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A228" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A229" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A230" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A231" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A232" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A233" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A234" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A235" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A236" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A237" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A238" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A239" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A240" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A241" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A242" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A243" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A244" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A245" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A246" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A247" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A248" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A249" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A250" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A251" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A252" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A253" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A254" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A255" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A256" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A257" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A258" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A259" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A260" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A261" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A262" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A263" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A264" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A265" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A266" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A267" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A268" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A269" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A270" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A271" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A272" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A273" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A274" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A275" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A276" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A277" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A278" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A279" s="1" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="280" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A280" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A281" s="1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A282" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A283" s="1" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="284" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A284" s="1" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="285" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A285" s="1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="286" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A286" s="1" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="287" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A287" s="1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A288" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A289" s="1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="290" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A290" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="291" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A291" s="1" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A292" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="293" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A293" s="1" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="294" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A294" s="1" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A295" s="1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="296" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A296" s="1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="297" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A297" s="1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="298" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A298" s="1" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="299" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A299" s="1" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="300" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A300" s="1" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="301" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A301" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="302" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A302" s="1" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="303" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A303" s="1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="304" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A304" s="1" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="305" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A305" s="1" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="306" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A306" s="1" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="307" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A307" s="1" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="308" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A308" s="1" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="309" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A309" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="310" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A310" s="1" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="311" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A311" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="312" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A312" s="1" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="313" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A313" s="1" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="314" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A314" s="1" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="315" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A315" s="1" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="316" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A316" s="1" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="317" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A317" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="318" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A318" s="1" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="319" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A319" s="1" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="320" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A320" s="1" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="321" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A321" s="1" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="322" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A322" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="323" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A323" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="324" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A324" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="325" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A325" s="1" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="326" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A326" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="327" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A327" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="328" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A328" s="1" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="329" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A329" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="330" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A330" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="331" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A331" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="332" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A332" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="333" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A333" s="1" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="334" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A334" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="335" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A335" s="1" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="336" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A336" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="337" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A337" s="1" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="338" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A338" s="1" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="339" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A339" s="1" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="340" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A340" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="341" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A341" s="1" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="342" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A342" s="1" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="343" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A343" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="344" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A344" s="1" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="345" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A345" s="1" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="346" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A346" s="1" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="347" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A347" s="1" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="348" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A348" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="349" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A349" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="350" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A350" s="1" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="351" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A351" s="1" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="352" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A352" s="1" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="353" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A353" s="1" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="354" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A354" s="1" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="355" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A355" s="1" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="356" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A356" s="1" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="357" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A357" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="358" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A358" s="1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="359" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A359" s="1" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="360" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A360" s="1" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="361" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A361" s="1" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="362" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A362" s="1" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="363" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A363" s="1" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="364" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A364" s="1" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="365" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A365" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="366" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A366" s="1" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="367" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A367" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="368" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A368" s="1" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="369" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A369" s="1" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="370" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A370" s="1" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="371" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A371" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="372" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A372" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="373" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A373" s="1" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="374" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A374" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="375" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A375" s="1" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="376" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A376" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="377" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A377" s="1" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="378" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A378" s="1" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="379" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A379" s="1" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="380" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A380" s="1" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="381" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A381" s="1" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="382" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A382" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="383" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A383" s="1" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="384" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A384" s="1" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="385" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A385" s="1" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="386" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A386" s="1" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="387" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A387" s="1" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="388" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A388" s="1" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="389" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A389" s="1" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="390" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A390" s="1" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="391" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A391" s="1" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="392" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A392" s="1" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="393" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A393" s="1" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="394" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A394" s="1" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="395" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A395" s="1" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="396" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A396" s="1" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="397" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A397" s="1" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="398" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A398" s="1" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="399" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A399" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="400" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A400" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="401" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A401" s="1" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="402" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A402" s="1" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="403" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A403" s="1" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="404" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A404" s="1" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="405" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A405" s="1" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="406" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A406" s="1" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="407" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A407" s="1" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="408" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A408" s="1" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="409" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A409" s="1" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="410" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A410" s="1" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="411" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A411" s="1" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="412" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A412" s="1" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="413" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A413" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="414" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A414" s="1" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="415" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A415" s="1" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="416" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A416" s="1" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="417" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A417" s="1" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="418" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A418" s="1" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="419" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A419" s="1" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="420" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A420" s="1" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="421" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A421" s="1" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="422" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A422" s="1" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="423" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A423" s="1" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="424" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A424" s="1" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="425" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A425" s="1" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="426" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A426" s="1" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="427" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A427" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="428" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A428" s="1" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="429" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A429" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="430" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A430" s="1" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="431" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A431" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="432" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A432" s="1" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="433" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A433" s="1" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="434" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A434" s="1" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="435" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A435" s="1" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="436" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A436" s="1" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="437" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A437" s="1" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="438" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A438" s="1" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="439" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A439" s="1" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="440" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A440" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="441" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A441" s="1" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="442" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A442" s="1" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="443" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A443" s="1" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="444" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A444" s="1" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="445" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A445" s="1" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="446" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A446" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="447" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A447" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="448" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A448" s="1" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="449" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A449" s="1" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="450" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A450" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="451" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A451" s="1" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="452" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A452" s="1" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="453" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A453" s="1" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="454" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A454" s="1" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="455" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A455" s="1" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="456" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A456" s="1" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="457" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A457" s="1" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="458" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A458" s="1" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="459" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A459" s="1" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="460" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A460" s="1" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="461" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A461" s="1" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="462" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A462" s="1" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="463" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A463" s="1" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="464" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A464" s="1" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="465" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A465" s="1" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="466" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A466" s="1" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="467" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A467" s="1" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="468" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A468" s="1" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="469" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A469" s="1" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="470" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A470" s="1" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="471" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A471" s="1" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="472" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A472" s="1" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="473" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A473" s="1" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="474" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A474" s="1" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="475" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A475" s="1" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="476" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A476" s="1" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="477" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A477" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="478" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A478" s="1" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="479" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A479" s="1" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="480" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A480" s="1" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="481" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A481" s="1" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="482" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A482" s="1" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="483" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A483" s="1" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="484" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A484" s="1" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="485" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A485" s="1" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="486" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A486" s="1" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="487" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A487" s="1" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="488" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A488" s="1" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="489" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A489" s="1" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="490" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A490" s="1" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="491" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A491" s="1" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="492" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A492" s="1" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="493" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A493" s="1" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="494" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A494" s="1" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="495" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A495" s="1" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="496" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A496" s="1" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="497" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A497" s="1" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="498" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A498" s="1" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="499" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A499" s="1" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="500" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A500" s="1" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="501" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A501" s="1" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="502" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A502" s="1" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="503" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A503" s="1" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="504" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A504" s="1" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="505" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A505" s="1" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="506" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A506" s="1" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="507" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A507" s="1" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="508" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A508" s="1" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="509" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A509" s="1" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="510" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A510" s="1" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="511" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A511" s="1" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="512" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A512" s="1" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="513" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A513" s="1" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="514" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A514" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="515" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A515" s="1" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="516" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A516" s="1" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="517" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A517" s="1" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="518" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A518" s="1" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="519" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A519" s="1" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="520" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A520" s="1" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="521" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A521" s="1" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="522" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A522" s="1" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="523" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A523" s="1" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="524" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A524" s="1" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="525" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A525" s="1" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="526" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A526" s="1" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="527" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A527" s="1" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="528" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A528" s="1" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="529" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A529" s="1" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="530" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A530" s="1" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="531" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A531" s="1" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="532" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A532" s="1" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="533" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A533" s="1" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="534" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A534" s="1" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="535" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A535" s="1" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="536" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A536" s="1" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="537" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A537" s="1" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="538" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A538" s="1" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="539" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A539" s="1" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="540" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A540" s="1" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="541" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A541" s="1" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="542" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A542" s="1" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="543" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A543" s="1" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="544" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A544" s="1" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="545" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A545" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="546" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A546" s="1" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="547" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A547" s="1" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="548" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A548" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="549" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A549" s="1" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="550" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A550" s="1" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="551" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A551" s="1" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="552" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A552" s="1" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="553" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A553" s="1" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="554" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A554" s="1" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="555" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A555" s="1" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="556" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A556" s="1" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="557" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A557" s="1" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="558" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A558" s="1" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="559" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A559" s="1" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="560" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A560" s="1" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="561" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A561" s="1" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="562" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A562" s="1" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="563" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A563" s="1" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="564" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A564" s="1" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="565" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A565" s="1" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="566" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A566" s="1" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="567" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A567" s="1" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="568" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A568" s="1" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="569" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A569" s="1" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="570" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A570" s="1" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="571" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A571" s="1" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="572" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A572" s="1" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="573" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A573" s="1" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="574" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A574" s="1" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="575" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A575" s="1" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="576" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A576" s="1" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="577" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A577" s="1" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="578" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A578" s="1" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="579" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A579" s="1" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="580" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A580" s="1" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="581" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A581" s="1" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="582" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A582" s="1" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="583" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A583" s="1" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="584" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A584" s="1" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="585" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A585" s="1" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="586" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A586" s="1" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="587" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A587" s="1" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="588" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A588" s="1" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="589" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A589" s="1" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="590" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A590" s="1" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="591" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A591" s="1" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="592" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A592" s="1" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="593" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A593" s="1" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="594" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A594" s="1" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="595" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A595" s="1" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="596" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A596" s="1" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="597" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A597" s="1" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="598" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A598" s="1" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="599" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A599" s="1" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="600" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A600" s="1" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="601" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A601" s="1" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="602" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A602" s="1" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="603" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A603" s="1" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="604" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A604" s="1" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="605" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A605" s="1" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="606" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A606" s="1" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="607" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A607" s="1" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="608" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A608" s="1" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="609" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A609" s="1" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="610" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A610" s="1" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="611" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A611" s="1" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="612" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A612" s="1" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="613" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A613" s="1" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="614" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A614" s="1" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="615" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A615" s="1" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="616" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A616" s="1" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="617" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A617" s="1" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="618" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A618" s="1" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="619" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A619" s="1" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="620" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A620" s="1" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="621" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A621" s="1" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="622" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A622" s="1" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="623" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A623" s="1" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="624" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A624" s="1" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="625" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A625" s="1" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="626" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A626" s="1" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="627" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A627" s="1" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="628" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A628" s="1" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="629" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A629" s="1" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="630" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A630" s="1" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="631" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A631" s="1" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="632" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A632" s="1" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="633" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A633" s="1" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="634" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A634" s="1" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="635" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A635" s="1" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="636" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A636" s="1" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="637" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A637" s="1" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="638" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A638" s="1" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="639" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A639" s="1" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="640" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A640" s="1" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="641" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A641" s="1" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="642" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A642" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="643" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A643" s="1" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="644" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A644" s="1" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="645" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A645" s="1" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="646" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A646" s="1" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="647" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A647" s="1" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="648" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A648" s="1" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="649" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A649" s="1" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="650" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A650" s="1" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="651" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A651" s="1" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="652" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A652" s="1" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="653" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A653" s="1" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="654" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A654" s="1" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="655" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A655" s="1" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="656" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A656" s="1" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="657" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A657" s="1" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="658" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A658" s="1" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="659" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A659" s="1" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="660" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A660" s="1" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="661" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A661" s="1" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="662" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A662" s="1" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="663" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A663" s="1" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="664" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A664" s="1" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="665" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A665" s="1" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="666" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A666" s="1" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="667" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A667" s="1" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="668" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A668" s="1" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="669" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A669" s="1" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="670" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A670" s="1" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="671" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A671" s="1" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="672" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A672" s="1" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="673" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A673" s="1" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="674" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A674" s="1" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="675" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A675" s="1" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="676" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A676" s="1" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="677" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A677" s="1" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="678" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A678" s="1" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="679" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A679" s="1" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="680" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A680" s="1" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="681" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A681" s="1" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="682" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A682" s="1" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="683" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A683" s="1" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="684" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A684" s="1" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="685" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A685" s="1" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="686" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A686" s="1" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="687" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A687" s="1" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="688" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A688" s="1" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="689" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A689" s="1" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="690" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A690" s="1" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="691" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A691" s="1" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="692" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A692" s="1" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="693" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A693" s="1" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="694" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A694" s="1" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="695" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A695" s="1" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="696" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A696" s="1" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="697" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A697" s="1" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="698" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A698" s="1" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="699" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A699" s="1" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="700" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A700" s="1" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="701" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A701" s="1" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="702" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A702" s="1" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="703" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A703" s="1" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="704" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A704" s="1" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="705" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A705" s="1" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="706" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A706" s="1" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="707" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A707" s="1" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="708" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A708" s="1" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="709" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A709" s="1" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="710" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A710" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="711" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A711" s="1" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="712" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A712" s="1" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="713" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A713" s="1" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="714" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A714" s="1" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="715" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A715" s="1" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="716" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A716" s="1" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="717" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A717" s="1" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="718" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A718" s="1" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="719" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A719" s="1" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="720" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A720" s="1" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="721" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A721" s="1" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="722" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A722" s="1" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="723" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A723" s="1" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="724" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A724" s="1" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="725" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A725" s="1" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="726" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A726" s="1" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="727" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A727" s="1" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="728" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A728" s="1" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="729" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A729" s="1" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="730" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A730" s="1" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="731" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A731" s="1" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="732" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A732" s="1" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="733" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A733" s="1" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="734" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A734" s="1" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="735" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A735" s="1" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="736" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A736" s="1" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="737" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A737" s="1" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="738" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A738" s="1" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="739" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A739" s="1" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="740" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A740" s="1" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="741" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A741" s="1" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="742" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A742" s="1" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="743" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A743" s="1" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="744" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A744" s="1" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="745" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A745" s="1" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="746" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A746" s="1" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="747" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A747" s="1" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="748" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A748" s="1" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="749" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A749" s="1" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="750" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A750" s="1" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="751" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A751" s="1" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="752" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A752" s="1" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="753" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A753" s="1" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="754" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A754" s="1" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="755" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A755" s="1" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="756" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A756" s="1" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="757" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A757" s="1" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="758" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A758" s="1" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="759" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A759" s="1" t="s">
+        <v>758</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
